--- a/public_html/archivos/2010_1001_EAU.xlsx
+++ b/public_html/archivos/2010_1001_EAU.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$CM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$CK$67</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="390">
   <si>
     <t>ESCUELA POLITÉCNICA NACIONAL</t>
   </si>
@@ -1158,9 +1158,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>PRESENCIAL</t>
   </si>
   <si>
@@ -1176,178 +1173,16 @@
     <t>FUNCIONANDO NORMALMENTE</t>
   </si>
   <si>
-    <t>P03508</t>
-  </si>
-  <si>
-    <t>NO VIGENTE HABILITADO PARA REGISTRO DE TÍTULOS</t>
-  </si>
-  <si>
     <t>DIURNA</t>
   </si>
   <si>
-    <t>01832</t>
-  </si>
-  <si>
-    <t>VIGENTE</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>02200</t>
-  </si>
-  <si>
-    <t>P02038</t>
-  </si>
-  <si>
-    <t>NO VIGENTE</t>
-  </si>
-  <si>
     <t>SIN ACTIVIDAD ACADEMICA</t>
   </si>
   <si>
-    <t>P04672</t>
-  </si>
-  <si>
-    <t>P02037</t>
-  </si>
-  <si>
-    <t>01810</t>
-  </si>
-  <si>
     <t>SUSPENDIDA PARA NUEVAS MATRICULAS</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>P00576</t>
-  </si>
-  <si>
-    <t>P03814</t>
-  </si>
-  <si>
-    <t>P03169</t>
-  </si>
-  <si>
-    <t>P03243</t>
-  </si>
-  <si>
-    <t>01812</t>
-  </si>
-  <si>
-    <t>01811</t>
-  </si>
-  <si>
-    <t>P01573</t>
-  </si>
-  <si>
-    <t>P00946</t>
-  </si>
-  <si>
-    <t>P01607</t>
-  </si>
-  <si>
-    <t>NO CONSTA</t>
-  </si>
-  <si>
-    <t>P04608</t>
-  </si>
-  <si>
-    <t>P04609</t>
-  </si>
-  <si>
-    <t>01825</t>
-  </si>
-  <si>
-    <t>01824</t>
-  </si>
-  <si>
-    <t>P04439</t>
-  </si>
-  <si>
-    <t>11118</t>
-  </si>
-  <si>
-    <t>01823</t>
-  </si>
-  <si>
-    <t>P01540</t>
-  </si>
-  <si>
-    <t>P01993</t>
-  </si>
-  <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>P01737</t>
-  </si>
-  <si>
-    <t>P01918</t>
-  </si>
-  <si>
-    <t>02604</t>
-  </si>
-  <si>
-    <t>01819</t>
-  </si>
-  <si>
-    <t>01820</t>
-  </si>
-  <si>
-    <t>P02428</t>
-  </si>
-  <si>
-    <t>P03247</t>
-  </si>
-  <si>
-    <t>P03611</t>
-  </si>
-  <si>
-    <t>P02256</t>
-  </si>
-  <si>
-    <t>01809</t>
-  </si>
-  <si>
-    <t>P04473</t>
-  </si>
-  <si>
-    <t>P01878</t>
-  </si>
-  <si>
-    <t>P04062</t>
-  </si>
-  <si>
-    <t>P04059</t>
-  </si>
-  <si>
-    <t>P00148</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>01807</t>
-  </si>
-  <si>
-    <t>P02431</t>
-  </si>
-  <si>
-    <t>01813</t>
-  </si>
-  <si>
-    <t>01814</t>
-  </si>
-  <si>
-    <t>01817</t>
-  </si>
-  <si>
-    <t>02205</t>
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
@@ -1768,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM67"/>
+  <dimension ref="A1:CK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,13 +1693,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1878,9 +1711,9 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1894,7 +1727,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>290</v>
       </c>
@@ -2162,14 +1995,8 @@
       <c r="CK4" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="CL4" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CM4" s="5" t="s">
-        <v>335</v>
-      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2277,19 +2104,19 @@
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP5" s="1">
         <v>1</v>
@@ -2304,7 +2131,7 @@
         <v>30</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU5" s="1">
         <v>0</v>
@@ -2319,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -2398,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY5" s="1" t="s">
         <v>12</v>
@@ -2440,14 +2267,8 @@
       <c r="CK5" s="8">
         <v>0</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -2553,19 +2374,19 @@
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP6" s="1">
         <v>4.5</v>
@@ -2580,7 +2401,7 @@
         <v>247</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU6" s="1">
         <v>0</v>
@@ -2592,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>12</v>
@@ -2674,10 +2495,10 @@
         <v>50</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ6" s="1" t="s">
         <v>12</v>
@@ -2686,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC6" s="1">
         <v>4</v>
@@ -2708,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ6" s="8">
         <v>0</v>
@@ -2716,14 +2537,8 @@
       <c r="CK6" s="8">
         <v>0</v>
       </c>
-      <c r="CL6" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="CM6" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -2829,19 +2644,19 @@
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP7" s="1">
         <v>4.5</v>
@@ -2856,7 +2671,7 @@
         <v>245</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU7" s="1">
         <v>0</v>
@@ -2868,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>12</v>
@@ -2950,10 +2765,10 @@
         <v>70</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ7" s="1" t="s">
         <v>12</v>
@@ -2962,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC7" s="1">
         <v>7</v>
@@ -2984,7 +2799,7 @@
         <v>41.4</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ7" s="8">
         <v>0</v>
@@ -2992,14 +2807,8 @@
       <c r="CK7" s="8">
         <v>0</v>
       </c>
-      <c r="CL7" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM7" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1001</v>
       </c>
@@ -3105,19 +2914,19 @@
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP8" s="1">
         <v>4.5</v>
@@ -3132,7 +2941,7 @@
         <v>247</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU8" s="1">
         <v>0</v>
@@ -3144,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>12</v>
@@ -3226,10 +3035,10 @@
         <v>50</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ8" s="1" t="s">
         <v>12</v>
@@ -3238,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC8" s="1">
         <v>3</v>
@@ -3260,7 +3069,7 @@
         <v>60</v>
       </c>
       <c r="CI8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ8" s="8">
         <v>0</v>
@@ -3268,14 +3077,8 @@
       <c r="CK8" s="8">
         <v>0</v>
       </c>
-      <c r="CL8" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="CM8" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1001</v>
       </c>
@@ -3383,19 +3186,19 @@
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL9" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP9" s="1">
         <v>1.5</v>
@@ -3410,7 +3213,7 @@
         <v>63</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU9" s="9">
         <v>1540</v>
@@ -3422,10 +3225,10 @@
         <v>12</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ9" s="1">
         <v>3</v>
@@ -3504,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY9" s="1" t="s">
         <v>12</v>
@@ -3538,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="CI9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ9" s="8">
         <v>0</v>
@@ -3546,14 +3349,8 @@
       <c r="CK9" s="8">
         <v>0</v>
       </c>
-      <c r="CL9" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM9" s="1" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1001</v>
       </c>
@@ -3661,19 +3458,19 @@
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL10" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AM10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM10" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP10" s="1">
         <v>2</v>
@@ -3688,7 +3485,7 @@
         <v>62</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AU10" s="1">
         <v>0</v>
@@ -3703,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ10" s="1">
         <v>0</v>
@@ -3782,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY10" s="1" t="s">
         <v>12</v>
@@ -3824,14 +3621,8 @@
       <c r="CK10" s="8">
         <v>0</v>
       </c>
-      <c r="CL10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="CM10" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1001</v>
       </c>
@@ -3939,19 +3730,19 @@
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM11" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP11" s="1">
         <v>1.5</v>
@@ -3966,7 +3757,7 @@
         <v>63</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU11" s="9">
         <v>2160</v>
@@ -3978,10 +3769,10 @@
         <v>12</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ11" s="1">
         <v>3</v>
@@ -4060,7 +3851,7 @@
         <v>50</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY11" s="1" t="s">
         <v>12</v>
@@ -4094,7 +3885,7 @@
         <v>7.1</v>
       </c>
       <c r="CI11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ11" s="8">
         <v>0</v>
@@ -4102,14 +3893,8 @@
       <c r="CK11" s="8">
         <v>0</v>
       </c>
-      <c r="CL11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="CM11" s="1" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1001</v>
       </c>
@@ -4213,19 +3998,19 @@
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP12" s="1">
         <v>4.5</v>
@@ -4240,7 +4025,7 @@
         <v>247</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU12" s="1">
         <v>0</v>
@@ -4252,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>12</v>
@@ -4334,10 +4119,10 @@
         <v>50</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ12" s="1" t="s">
         <v>12</v>
@@ -4346,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="CB12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC12" s="1">
         <v>1</v>
@@ -4368,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="CI12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ12" s="8">
         <v>0</v>
@@ -4376,14 +4161,8 @@
       <c r="CK12" s="8">
         <v>0</v>
       </c>
-      <c r="CL12" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="CM12" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1001</v>
       </c>
@@ -4491,19 +4270,19 @@
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM13" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP13" s="1">
         <v>0.5</v>
@@ -4518,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU13" s="1">
         <v>770</v>
@@ -4533,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ13" s="1">
         <v>0</v>
@@ -4643,10 +4422,10 @@
         <v>2</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ13" s="8">
         <v>0</v>
@@ -4654,14 +4433,8 @@
       <c r="CK13" s="8">
         <v>0</v>
       </c>
-      <c r="CL13" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM13" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1001</v>
       </c>
@@ -4769,19 +4542,19 @@
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL14" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM14" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP14" s="1">
         <v>1</v>
@@ -4796,7 +4569,7 @@
         <v>30</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU14" s="9">
         <v>2033</v>
@@ -4811,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ14" s="1">
         <v>0</v>
@@ -4890,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY14" s="1" t="s">
         <v>12</v>
@@ -4921,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ14" s="8">
         <v>0</v>
@@ -4932,14 +4705,8 @@
       <c r="CK14" s="8">
         <v>0</v>
       </c>
-      <c r="CL14" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="CM14" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1001</v>
       </c>
@@ -5047,19 +4814,19 @@
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM15" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP15" s="1">
         <v>1</v>
@@ -5074,7 +4841,7 @@
         <v>30</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU15" s="9">
         <v>1848</v>
@@ -5089,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ15" s="1">
         <v>0</v>
@@ -5168,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY15" s="1" t="s">
         <v>12</v>
@@ -5199,10 +4966,10 @@
         <v>1</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ15" s="8">
         <v>0</v>
@@ -5210,14 +4977,8 @@
       <c r="CK15" s="8">
         <v>0</v>
       </c>
-      <c r="CL15" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="CM15" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1001</v>
       </c>
@@ -5325,19 +5086,19 @@
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL16" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP16" s="1">
         <v>1</v>
@@ -5352,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU16" s="9">
         <v>1959</v>
@@ -5367,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ16" s="1">
         <v>0</v>
@@ -5446,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY16" s="1" t="s">
         <v>12</v>
@@ -5480,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="CI16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ16" s="8">
         <v>0</v>
@@ -5488,14 +5249,8 @@
       <c r="CK16" s="8">
         <v>0</v>
       </c>
-      <c r="CL16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="CM16" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1001</v>
       </c>
@@ -5601,19 +5356,19 @@
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL17" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM17" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP17" s="1">
         <v>1</v>
@@ -5628,7 +5383,7 @@
         <v>30</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU17" s="1">
         <v>0</v>
@@ -5643,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ17" s="1">
         <v>0</v>
@@ -5722,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY17" s="1" t="s">
         <v>12</v>
@@ -5756,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="CI17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ17" s="8">
         <v>0</v>
@@ -5764,14 +5519,8 @@
       <c r="CK17" s="8">
         <v>0</v>
       </c>
-      <c r="CL17" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM17" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1001</v>
       </c>
@@ -5877,19 +5626,19 @@
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL18" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM18" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP18" s="1">
         <v>1</v>
@@ -5904,7 +5653,7 @@
         <v>30</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU18" s="9">
         <v>2400</v>
@@ -5919,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ18" s="1">
         <v>0</v>
@@ -5998,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY18" s="1" t="s">
         <v>12</v>
@@ -6032,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="CI18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ18" s="8">
         <v>0</v>
@@ -6040,14 +5789,8 @@
       <c r="CK18" s="8">
         <v>0</v>
       </c>
-      <c r="CL18" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="CM18" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1001</v>
       </c>
@@ -6153,19 +5896,19 @@
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP19" s="1">
         <v>4.5</v>
@@ -6180,7 +5923,7 @@
         <v>245</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU19" s="1">
         <v>0</v>
@@ -6192,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>12</v>
@@ -6274,10 +6017,10 @@
         <v>100</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ19" s="1" t="s">
         <v>12</v>
@@ -6286,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="CB19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC19" s="1">
         <v>38</v>
@@ -6308,7 +6051,7 @@
         <v>69.8</v>
       </c>
       <c r="CI19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ19" s="8">
         <v>0</v>
@@ -6316,14 +6059,8 @@
       <c r="CK19" s="8">
         <v>0</v>
       </c>
-      <c r="CL19" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="CM19" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1001</v>
       </c>
@@ -6429,19 +6166,19 @@
       </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL20" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM20" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP20" s="1">
         <v>2</v>
@@ -6456,7 +6193,7 @@
         <v>104</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
@@ -6471,7 +6208,7 @@
         <v>12</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ20" s="1">
         <v>0</v>
@@ -6550,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY20" s="1" t="s">
         <v>12</v>
@@ -6562,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="CB20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC20" s="1">
         <v>36</v>
@@ -6581,10 +6318,10 @@
         <v>27</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ20" s="8">
         <v>0</v>
@@ -6592,14 +6329,8 @@
       <c r="CK20" s="8">
         <v>0</v>
       </c>
-      <c r="CL20" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="CM20" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1001</v>
       </c>
@@ -6707,19 +6438,19 @@
       </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL21" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM21" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP21" s="1">
         <v>2</v>
@@ -6734,7 +6465,7 @@
         <v>65</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU21" s="9">
         <v>1240</v>
@@ -6749,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ21" s="1">
         <v>0</v>
@@ -6828,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY21" s="1" t="s">
         <v>12</v>
@@ -6840,7 +6571,7 @@
         <v>12</v>
       </c>
       <c r="CB21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC21" s="1">
         <v>0</v>
@@ -6862,7 +6593,7 @@
         <v>31.3</v>
       </c>
       <c r="CI21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ21" s="8">
         <v>0</v>
@@ -6870,14 +6601,8 @@
       <c r="CK21" s="8">
         <v>0</v>
       </c>
-      <c r="CL21" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="CM21" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1001</v>
       </c>
@@ -6985,19 +6710,19 @@
       </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AM22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM22" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP22" s="1">
         <v>2</v>
@@ -7012,7 +6737,7 @@
         <v>60</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU22" s="1">
         <v>650</v>
@@ -7027,7 +6752,7 @@
         <v>12</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ22" s="1">
         <v>0</v>
@@ -7106,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY22" s="1" t="s">
         <v>12</v>
@@ -7118,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="CB22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC22" s="1">
         <v>2</v>
@@ -7140,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="CI22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ22" s="8">
         <v>0</v>
@@ -7148,14 +6873,8 @@
       <c r="CK22" s="8">
         <v>0</v>
       </c>
-      <c r="CL22" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="CM22" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1001</v>
       </c>
@@ -7263,19 +6982,19 @@
       </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL23" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AM23" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM23" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP23" s="1">
         <v>2</v>
@@ -7290,7 +7009,7 @@
         <v>62</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU23" s="9">
         <v>2496</v>
@@ -7305,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ23" s="1">
         <v>0</v>
@@ -7384,7 +7103,7 @@
         <v>160</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY23" s="1" t="s">
         <v>12</v>
@@ -7396,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="CB23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC23" s="1">
         <v>29</v>
@@ -7418,7 +7137,7 @@
         <v>23.2</v>
       </c>
       <c r="CI23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ23" s="8">
         <v>0</v>
@@ -7426,14 +7145,8 @@
       <c r="CK23" s="8">
         <v>0</v>
       </c>
-      <c r="CL23" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="CM23" s="1" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1001</v>
       </c>
@@ -7541,19 +7254,19 @@
       </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL24" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AM24" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM24" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP24" s="1">
         <v>2</v>
@@ -7568,7 +7281,7 @@
         <v>61</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU24" s="1">
         <v>0</v>
@@ -7583,7 +7296,7 @@
         <v>12</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -7662,7 +7375,7 @@
         <v>30</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY24" s="1" t="s">
         <v>12</v>
@@ -7674,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="CB24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC24" s="1">
         <v>0</v>
@@ -7704,14 +7417,8 @@
       <c r="CK24" s="8">
         <v>0</v>
       </c>
-      <c r="CL24" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CM24" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1001</v>
       </c>
@@ -7819,19 +7526,19 @@
       </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL25" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AM25" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM25" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP25" s="1">
         <v>2</v>
@@ -7846,7 +7553,7 @@
         <v>62</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -7861,7 +7568,7 @@
         <v>12</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -7940,7 +7647,7 @@
         <v>30</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY25" s="1" t="s">
         <v>12</v>
@@ -7952,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="CB25" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC25" s="1">
         <v>0</v>
@@ -7982,14 +7689,8 @@
       <c r="CK25" s="8">
         <v>0</v>
       </c>
-      <c r="CL25" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CM25" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1001</v>
       </c>
@@ -8093,19 +7794,19 @@
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP26" s="1">
         <v>4.5</v>
@@ -8120,7 +7821,7 @@
         <v>246</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -8132,7 +7833,7 @@
         <v>12</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>12</v>
@@ -8214,10 +7915,10 @@
         <v>30</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ26" s="1" t="s">
         <v>12</v>
@@ -8226,7 +7927,7 @@
         <v>12</v>
       </c>
       <c r="CB26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC26" s="1">
         <v>20</v>
@@ -8248,7 +7949,7 @@
         <v>75</v>
       </c>
       <c r="CI26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ26" s="8">
         <v>0</v>
@@ -8256,14 +7957,8 @@
       <c r="CK26" s="8">
         <v>0</v>
       </c>
-      <c r="CL26" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CM26" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1001</v>
       </c>
@@ -8367,19 +8062,19 @@
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP27" s="1">
         <v>4.5</v>
@@ -8394,7 +8089,7 @@
         <v>245</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -8406,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>12</v>
@@ -8488,10 +8183,10 @@
         <v>30</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ27" s="1" t="s">
         <v>12</v>
@@ -8500,7 +8195,7 @@
         <v>12</v>
       </c>
       <c r="CB27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC27" s="1">
         <v>2</v>
@@ -8522,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="CI27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ27" s="8">
         <v>0</v>
@@ -8530,14 +8225,8 @@
       <c r="CK27" s="8">
         <v>0</v>
       </c>
-      <c r="CL27" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CM27" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1001</v>
       </c>
@@ -8645,19 +8334,19 @@
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL28" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL28" s="1" t="s">
+      <c r="AM28" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM28" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP28" s="1">
         <v>2</v>
@@ -8672,7 +8361,7 @@
         <v>60</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
@@ -8687,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ28" s="1">
         <v>0</v>
@@ -8766,7 +8455,7 @@
         <v>30</v>
       </c>
       <c r="BX28" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY28" s="1" t="s">
         <v>12</v>
@@ -8778,7 +8467,7 @@
         <v>12</v>
       </c>
       <c r="CB28" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC28" s="1">
         <v>0</v>
@@ -8808,14 +8497,8 @@
       <c r="CK28" s="8">
         <v>0</v>
       </c>
-      <c r="CL28" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CM28" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1001</v>
       </c>
@@ -8921,19 +8604,19 @@
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP29" s="1">
         <v>4.5</v>
@@ -8948,7 +8631,7 @@
         <v>248</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU29" s="1">
         <v>0</v>
@@ -8960,7 +8643,7 @@
         <v>12</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>12</v>
@@ -9042,10 +8725,10 @@
         <v>80</v>
       </c>
       <c r="BX29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ29" s="1" t="s">
         <v>12</v>
@@ -9054,7 +8737,7 @@
         <v>12</v>
       </c>
       <c r="CB29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC29" s="1">
         <v>8</v>
@@ -9076,7 +8759,7 @@
         <v>88.9</v>
       </c>
       <c r="CI29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ29" s="8">
         <v>0</v>
@@ -9084,14 +8767,8 @@
       <c r="CK29" s="8">
         <v>0</v>
       </c>
-      <c r="CL29" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CM29" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1001</v>
       </c>
@@ -9195,19 +8872,19 @@
       </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP30" s="1">
         <v>4.5</v>
@@ -9222,7 +8899,7 @@
         <v>248</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -9234,7 +8911,7 @@
         <v>12</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>12</v>
@@ -9316,10 +8993,10 @@
         <v>80</v>
       </c>
       <c r="BX30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ30" s="1" t="s">
         <v>12</v>
@@ -9328,7 +9005,7 @@
         <v>12</v>
       </c>
       <c r="CB30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC30" s="1">
         <v>11</v>
@@ -9350,7 +9027,7 @@
         <v>50</v>
       </c>
       <c r="CI30" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ30" s="8">
         <v>0</v>
@@ -9358,14 +9035,8 @@
       <c r="CK30" s="8">
         <v>0</v>
       </c>
-      <c r="CL30" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CM30" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1001</v>
       </c>
@@ -9473,19 +9144,19 @@
       </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL31" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM31" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP31" s="1">
         <v>2</v>
@@ -9500,7 +9171,7 @@
         <v>60</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU31" s="9">
         <v>1580</v>
@@ -9512,10 +9183,10 @@
         <v>12</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ31" s="1">
         <v>4</v>
@@ -9594,7 +9265,7 @@
         <v>20</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY31" s="1" t="s">
         <v>12</v>
@@ -9606,7 +9277,7 @@
         <v>12</v>
       </c>
       <c r="CB31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC31" s="1">
         <v>0</v>
@@ -9636,14 +9307,8 @@
       <c r="CK31" s="8">
         <v>0</v>
       </c>
-      <c r="CL31" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM31" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1001</v>
       </c>
@@ -9751,19 +9416,19 @@
       </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL32" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL32" s="1" t="s">
+      <c r="AM32" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM32" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP32" s="1">
         <v>2</v>
@@ -9778,7 +9443,7 @@
         <v>60</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU32" s="1">
         <v>0</v>
@@ -9793,7 +9458,7 @@
         <v>12</v>
       </c>
       <c r="AY32" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
@@ -9872,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="BX32" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY32" s="1" t="s">
         <v>12</v>
@@ -9884,7 +9549,7 @@
         <v>12</v>
       </c>
       <c r="CB32" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC32" s="1">
         <v>3</v>
@@ -9906,7 +9571,7 @@
         <v>25</v>
       </c>
       <c r="CI32" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ32" s="8">
         <v>0</v>
@@ -9914,14 +9579,8 @@
       <c r="CK32" s="8">
         <v>0</v>
       </c>
-      <c r="CL32" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CM32" s="1" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1001</v>
       </c>
@@ -10029,19 +9688,19 @@
       </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL33" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL33" s="1" t="s">
+      <c r="AM33" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM33" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP33" s="1">
         <v>2</v>
@@ -10056,7 +9715,7 @@
         <v>60</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU33" s="1">
         <v>0</v>
@@ -10071,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="AY33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ33" s="1">
         <v>0</v>
@@ -10150,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="BX33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY33" s="1" t="s">
         <v>12</v>
@@ -10162,7 +9821,7 @@
         <v>12</v>
       </c>
       <c r="CB33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC33" s="1">
         <v>0</v>
@@ -10184,7 +9843,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="CI33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ33" s="8">
         <v>0</v>
@@ -10192,14 +9851,8 @@
       <c r="CK33" s="8">
         <v>0</v>
       </c>
-      <c r="CL33" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM33" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1001</v>
       </c>
@@ -10307,19 +9960,19 @@
       </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL34" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="AM34" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM34" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP34" s="1">
         <v>2</v>
@@ -10334,7 +9987,7 @@
         <v>60</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU34" s="1">
         <v>0</v>
@@ -10349,7 +10002,7 @@
         <v>12</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -10428,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="BX34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY34" s="1" t="s">
         <v>12</v>
@@ -10440,7 +10093,7 @@
         <v>12</v>
       </c>
       <c r="CB34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC34" s="1">
         <v>4</v>
@@ -10462,7 +10115,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="CI34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ34" s="8">
         <v>0</v>
@@ -10470,14 +10123,8 @@
       <c r="CK34" s="8">
         <v>0</v>
       </c>
-      <c r="CL34" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CM34" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1001</v>
       </c>
@@ -10585,19 +10232,19 @@
       </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL35" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL35" s="1" t="s">
+      <c r="AM35" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM35" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP35" s="1">
         <v>2</v>
@@ -10612,7 +10259,7 @@
         <v>60</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU35" s="9">
         <v>1580</v>
@@ -10624,10 +10271,10 @@
         <v>12</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ35" s="1">
         <v>4</v>
@@ -10706,7 +10353,7 @@
         <v>30</v>
       </c>
       <c r="BX35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY35" s="1" t="s">
         <v>12</v>
@@ -10718,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="CB35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC35" s="1">
         <v>0</v>
@@ -10748,14 +10395,8 @@
       <c r="CK35" s="8">
         <v>0</v>
       </c>
-      <c r="CL35" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM35" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1001</v>
       </c>
@@ -10859,19 +10500,19 @@
       </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP36" s="1">
         <v>4.5</v>
@@ -10886,7 +10527,7 @@
         <v>248</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU36" s="1">
         <v>0</v>
@@ -10898,7 +10539,7 @@
         <v>12</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY36" s="1" t="s">
         <v>12</v>
@@ -10980,10 +10621,10 @@
         <v>120</v>
       </c>
       <c r="BX36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ36" s="1" t="s">
         <v>12</v>
@@ -10992,7 +10633,7 @@
         <v>12</v>
       </c>
       <c r="CB36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC36" s="1">
         <v>63</v>
@@ -11014,7 +10655,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="CI36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ36" s="8">
         <v>0</v>
@@ -11022,14 +10663,8 @@
       <c r="CK36" s="8">
         <v>0</v>
       </c>
-      <c r="CL36" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM36" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1001</v>
       </c>
@@ -11135,19 +10770,19 @@
       </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP37" s="1">
         <v>4.5</v>
@@ -11162,7 +10797,7 @@
         <v>104</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
@@ -11177,7 +10812,7 @@
         <v>12</v>
       </c>
       <c r="AY37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ37" s="1">
         <v>0</v>
@@ -11256,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="BX37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY37" s="1" t="s">
         <v>12</v>
@@ -11268,7 +10903,7 @@
         <v>12</v>
       </c>
       <c r="CB37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC37" s="1">
         <v>2</v>
@@ -11287,10 +10922,10 @@
         <v>9</v>
       </c>
       <c r="CH37" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ37" s="8">
         <v>0</v>
@@ -11298,14 +10933,8 @@
       <c r="CK37" s="8">
         <v>0</v>
       </c>
-      <c r="CL37" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CM37" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1001</v>
       </c>
@@ -11409,19 +11038,19 @@
       </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL38" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="AM38" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM38" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP38" s="1">
         <v>2</v>
@@ -11436,7 +11065,7 @@
         <v>60</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -11451,7 +11080,7 @@
         <v>12</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ38" s="1">
         <v>0</v>
@@ -11530,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="BX38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY38" s="1" t="s">
         <v>12</v>
@@ -11542,7 +11171,7 @@
         <v>12</v>
       </c>
       <c r="CB38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC38" s="1">
         <v>1</v>
@@ -11561,10 +11190,10 @@
         <v>0</v>
       </c>
       <c r="CH38" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ38" s="8">
         <v>0</v>
@@ -11572,14 +11201,8 @@
       <c r="CK38" s="8">
         <v>0</v>
       </c>
-      <c r="CL38" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM38" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1001</v>
       </c>
@@ -11687,19 +11310,19 @@
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL39" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="AM39" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM39" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP39" s="1">
         <v>2</v>
@@ -11714,7 +11337,7 @@
         <v>46</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU39" s="1">
         <v>0</v>
@@ -11729,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="AY39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ39" s="1">
         <v>0</v>
@@ -11808,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="BX39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY39" s="1" t="s">
         <v>12</v>
@@ -11820,7 +11443,7 @@
         <v>12</v>
       </c>
       <c r="CB39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC39" s="1">
         <v>0</v>
@@ -11842,7 +11465,7 @@
         <v>20</v>
       </c>
       <c r="CI39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ39" s="8">
         <v>0</v>
@@ -11850,14 +11473,8 @@
       <c r="CK39" s="8">
         <v>0</v>
       </c>
-      <c r="CL39" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CM39" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1001</v>
       </c>
@@ -11965,19 +11582,19 @@
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL40" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="AM40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM40" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP40" s="1">
         <v>2</v>
@@ -11992,7 +11609,7 @@
         <v>60</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU40" s="9">
         <v>1626</v>
@@ -12007,7 +11624,7 @@
         <v>12</v>
       </c>
       <c r="AY40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ40" s="1">
         <v>0</v>
@@ -12086,7 +11703,7 @@
         <v>50</v>
       </c>
       <c r="BX40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY40" s="1" t="s">
         <v>12</v>
@@ -12098,7 +11715,7 @@
         <v>12</v>
       </c>
       <c r="CB40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC40" s="1">
         <v>9</v>
@@ -12120,7 +11737,7 @@
         <v>5.6</v>
       </c>
       <c r="CI40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ40" s="8">
         <v>0</v>
@@ -12128,14 +11745,8 @@
       <c r="CK40" s="8">
         <v>0</v>
       </c>
-      <c r="CL40" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CM40" s="1" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1001</v>
       </c>
@@ -12239,19 +11850,19 @@
       </c>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL41" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM41" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP41" s="1">
         <v>4.5</v>
@@ -12266,7 +11877,7 @@
         <v>245</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU41" s="1">
         <v>0</v>
@@ -12278,7 +11889,7 @@
         <v>12</v>
       </c>
       <c r="AX41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY41" s="1" t="s">
         <v>12</v>
@@ -12360,10 +11971,10 @@
         <v>70</v>
       </c>
       <c r="BX41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ41" s="1" t="s">
         <v>12</v>
@@ -12372,7 +11983,7 @@
         <v>12</v>
       </c>
       <c r="CB41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC41" s="1">
         <v>26</v>
@@ -12394,7 +12005,7 @@
         <v>52.2</v>
       </c>
       <c r="CI41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ41" s="8">
         <v>0</v>
@@ -12402,14 +12013,8 @@
       <c r="CK41" s="8">
         <v>0</v>
       </c>
-      <c r="CL41" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="CM41" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1001</v>
       </c>
@@ -12513,19 +12118,19 @@
       </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP42" s="1">
         <v>4.5</v>
@@ -12540,7 +12145,7 @@
         <v>245</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU42" s="1">
         <v>0</v>
@@ -12552,7 +12157,7 @@
         <v>12</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY42" s="1" t="s">
         <v>12</v>
@@ -12634,10 +12239,10 @@
         <v>70</v>
       </c>
       <c r="BX42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ42" s="1" t="s">
         <v>12</v>
@@ -12646,7 +12251,7 @@
         <v>12</v>
       </c>
       <c r="CB42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC42" s="1">
         <v>62</v>
@@ -12668,7 +12273,7 @@
         <v>52.3</v>
       </c>
       <c r="CI42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ42" s="8">
         <v>0</v>
@@ -12676,14 +12281,8 @@
       <c r="CK42" s="8">
         <v>0</v>
       </c>
-      <c r="CL42" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="CM42" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1001</v>
       </c>
@@ -12789,19 +12388,19 @@
       </c>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM43" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP43" s="1">
         <v>4.5</v>
@@ -12816,7 +12415,7 @@
         <v>245</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -12828,7 +12427,7 @@
         <v>12</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY43" s="1" t="s">
         <v>12</v>
@@ -12910,10 +12509,10 @@
         <v>70</v>
       </c>
       <c r="BX43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ43" s="1" t="s">
         <v>12</v>
@@ -12922,7 +12521,7 @@
         <v>12</v>
       </c>
       <c r="CB43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC43" s="1">
         <v>19</v>
@@ -12944,7 +12543,7 @@
         <v>31.4</v>
       </c>
       <c r="CI43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ43" s="8">
         <v>0</v>
@@ -12952,14 +12551,8 @@
       <c r="CK43" s="8">
         <v>0</v>
       </c>
-      <c r="CL43" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM43" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1001</v>
       </c>
@@ -13063,19 +12656,19 @@
       </c>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM44" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP44" s="1">
         <v>4.5</v>
@@ -13090,7 +12683,7 @@
         <v>245</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -13102,7 +12695,7 @@
         <v>12</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY44" s="1" t="s">
         <v>12</v>
@@ -13184,10 +12777,10 @@
         <v>70</v>
       </c>
       <c r="BX44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ44" s="1" t="s">
         <v>12</v>
@@ -13196,7 +12789,7 @@
         <v>12</v>
       </c>
       <c r="CB44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC44" s="1">
         <v>100</v>
@@ -13218,7 +12811,7 @@
         <v>58.7</v>
       </c>
       <c r="CI44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ44" s="8">
         <v>0</v>
@@ -13226,14 +12819,8 @@
       <c r="CK44" s="8">
         <v>0</v>
       </c>
-      <c r="CL44" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="CM44" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1001</v>
       </c>
@@ -13341,19 +12928,19 @@
       </c>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL45" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL45" s="1" t="s">
+      <c r="AM45" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM45" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP45" s="1">
         <v>2</v>
@@ -13368,7 +12955,7 @@
         <v>60</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU45" s="1">
         <v>0</v>
@@ -13383,7 +12970,7 @@
         <v>12</v>
       </c>
       <c r="AY45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ45" s="1">
         <v>0</v>
@@ -13462,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="BX45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY45" s="1" t="s">
         <v>12</v>
@@ -13474,7 +13061,7 @@
         <v>12</v>
       </c>
       <c r="CB45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC45" s="1">
         <v>1</v>
@@ -13496,7 +13083,7 @@
         <v>11.1</v>
       </c>
       <c r="CI45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ45" s="8">
         <v>0</v>
@@ -13504,14 +13091,8 @@
       <c r="CK45" s="8">
         <v>0</v>
       </c>
-      <c r="CL45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="CM45" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1001</v>
       </c>
@@ -13619,19 +13200,19 @@
       </c>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL46" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL46" s="1" t="s">
+      <c r="AM46" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM46" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP46" s="1">
         <v>2</v>
@@ -13646,7 +13227,7 @@
         <v>60</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU46" s="1">
         <v>700</v>
@@ -13661,7 +13242,7 @@
         <v>12</v>
       </c>
       <c r="AY46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ46" s="1">
         <v>0</v>
@@ -13740,7 +13321,7 @@
         <v>48</v>
       </c>
       <c r="BX46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY46" s="1" t="s">
         <v>12</v>
@@ -13752,7 +13333,7 @@
         <v>12</v>
       </c>
       <c r="CB46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC46" s="1">
         <v>0</v>
@@ -13782,14 +13363,8 @@
       <c r="CK46" s="8">
         <v>0</v>
       </c>
-      <c r="CL46" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="CM46" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1001</v>
       </c>
@@ -13897,19 +13472,19 @@
       </c>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL47" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL47" s="1" t="s">
+      <c r="AM47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM47" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP47" s="1">
         <v>2</v>
@@ -13924,7 +13499,7 @@
         <v>60</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU47" s="1">
         <v>0</v>
@@ -13936,10 +13511,10 @@
         <v>12</v>
       </c>
       <c r="AX47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ47" s="1">
         <v>4</v>
@@ -14018,7 +13593,7 @@
         <v>48</v>
       </c>
       <c r="BX47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY47" s="1" t="s">
         <v>12</v>
@@ -14030,7 +13605,7 @@
         <v>12</v>
       </c>
       <c r="CB47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC47" s="1">
         <v>0</v>
@@ -14052,7 +13627,7 @@
         <v>10</v>
       </c>
       <c r="CI47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ47" s="8">
         <v>0</v>
@@ -14060,14 +13635,8 @@
       <c r="CK47" s="8">
         <v>0</v>
       </c>
-      <c r="CL47" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="CM47" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1001</v>
       </c>
@@ -14175,19 +13744,19 @@
       </c>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL48" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL48" s="1" t="s">
+      <c r="AM48" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM48" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP48" s="1">
         <v>2</v>
@@ -14202,7 +13771,7 @@
         <v>60</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU48" s="1">
         <v>0</v>
@@ -14217,7 +13786,7 @@
         <v>12</v>
       </c>
       <c r="AY48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ48" s="1">
         <v>0</v>
@@ -14296,7 +13865,7 @@
         <v>48</v>
       </c>
       <c r="BX48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY48" s="1" t="s">
         <v>12</v>
@@ -14308,7 +13877,7 @@
         <v>12</v>
       </c>
       <c r="CB48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC48" s="1">
         <v>3</v>
@@ -14330,7 +13899,7 @@
         <v>12</v>
       </c>
       <c r="CI48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ48" s="8">
         <v>0</v>
@@ -14338,14 +13907,8 @@
       <c r="CK48" s="8">
         <v>0</v>
       </c>
-      <c r="CL48" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CM48" s="1" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1001</v>
       </c>
@@ -14449,19 +14012,19 @@
       </c>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP49" s="1">
         <v>5</v>
@@ -14476,7 +14039,7 @@
         <v>275</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU49" s="1">
         <v>0</v>
@@ -14488,7 +14051,7 @@
         <v>12</v>
       </c>
       <c r="AX49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY49" s="1" t="s">
         <v>12</v>
@@ -14570,10 +14133,10 @@
         <v>160</v>
       </c>
       <c r="BX49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ49" s="1" t="s">
         <v>12</v>
@@ -14582,7 +14145,7 @@
         <v>12</v>
       </c>
       <c r="CB49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC49" s="1">
         <v>97</v>
@@ -14604,7 +14167,7 @@
         <v>63.2</v>
       </c>
       <c r="CI49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ49" s="8">
         <v>0</v>
@@ -14612,14 +14175,8 @@
       <c r="CK49" s="8">
         <v>0</v>
       </c>
-      <c r="CL49" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="CM49" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1001</v>
       </c>
@@ -14727,19 +14284,19 @@
       </c>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL50" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL50" s="1" t="s">
+      <c r="AM50" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM50" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP50" s="1">
         <v>2</v>
@@ -14754,7 +14311,7 @@
         <v>60</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU50" s="9">
         <v>1588</v>
@@ -14769,7 +14326,7 @@
         <v>12</v>
       </c>
       <c r="AY50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ50" s="1">
         <v>0</v>
@@ -14848,7 +14405,7 @@
         <v>40</v>
       </c>
       <c r="BX50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY50" s="1" t="s">
         <v>12</v>
@@ -14860,7 +14417,7 @@
         <v>12</v>
       </c>
       <c r="CB50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC50" s="1">
         <v>0</v>
@@ -14882,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="CI50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ50" s="8">
         <v>0</v>
@@ -14890,14 +14447,8 @@
       <c r="CK50" s="8">
         <v>0</v>
       </c>
-      <c r="CL50" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM50" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1001</v>
       </c>
@@ -15005,19 +14556,19 @@
       </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL51" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL51" s="1" t="s">
+      <c r="AM51" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM51" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP51" s="1">
         <v>2</v>
@@ -15032,7 +14583,7 @@
         <v>60</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU51" s="1">
         <v>0</v>
@@ -15047,7 +14598,7 @@
         <v>12</v>
       </c>
       <c r="AY51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ51" s="1">
         <v>0</v>
@@ -15126,7 +14677,7 @@
         <v>40</v>
       </c>
       <c r="BX51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY51" s="1" t="s">
         <v>12</v>
@@ -15138,7 +14689,7 @@
         <v>12</v>
       </c>
       <c r="CB51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC51" s="1">
         <v>0</v>
@@ -15168,14 +14719,8 @@
       <c r="CK51" s="8">
         <v>0</v>
       </c>
-      <c r="CL51" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="CM51" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1001</v>
       </c>
@@ -15283,19 +14828,19 @@
       </c>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL52" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL52" s="1" t="s">
+      <c r="AM52" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM52" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP52" s="1">
         <v>2</v>
@@ -15310,7 +14855,7 @@
         <v>60</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU52" s="1">
         <v>0</v>
@@ -15325,7 +14870,7 @@
         <v>12</v>
       </c>
       <c r="AY52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ52" s="1">
         <v>0</v>
@@ -15404,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="BX52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY52" s="1" t="s">
         <v>12</v>
@@ -15416,7 +14961,7 @@
         <v>12</v>
       </c>
       <c r="CB52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC52" s="1">
         <v>0</v>
@@ -15446,14 +14991,8 @@
       <c r="CK52" s="8">
         <v>0</v>
       </c>
-      <c r="CL52" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="CM52" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1001</v>
       </c>
@@ -15561,19 +15100,19 @@
       </c>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL53" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL53" s="1" t="s">
+      <c r="AM53" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM53" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP53" s="1">
         <v>2</v>
@@ -15588,7 +15127,7 @@
         <v>60</v>
       </c>
       <c r="AT53" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU53" s="9">
         <v>1588</v>
@@ -15603,7 +15142,7 @@
         <v>12</v>
       </c>
       <c r="AY53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ53" s="1">
         <v>0</v>
@@ -15682,7 +15221,7 @@
         <v>40</v>
       </c>
       <c r="BX53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY53" s="1" t="s">
         <v>12</v>
@@ -15694,7 +15233,7 @@
         <v>12</v>
       </c>
       <c r="CB53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC53" s="1">
         <v>0</v>
@@ -15724,14 +15263,8 @@
       <c r="CK53" s="8">
         <v>0</v>
       </c>
-      <c r="CL53" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="CM53" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1001</v>
       </c>
@@ -15839,19 +15372,19 @@
       </c>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL54" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL54" s="1" t="s">
+      <c r="AM54" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM54" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP54" s="1">
         <v>2</v>
@@ -15866,7 +15399,7 @@
         <v>60</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU54" s="9">
         <v>1360</v>
@@ -15881,7 +15414,7 @@
         <v>12</v>
       </c>
       <c r="AY54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ54" s="1">
         <v>0</v>
@@ -15960,7 +15493,7 @@
         <v>40</v>
       </c>
       <c r="BX54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY54" s="1" t="s">
         <v>12</v>
@@ -15972,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="CB54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC54" s="1">
         <v>0</v>
@@ -16002,14 +15535,8 @@
       <c r="CK54" s="8">
         <v>0</v>
       </c>
-      <c r="CL54" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="CM54" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1001</v>
       </c>
@@ -16117,19 +15644,19 @@
       </c>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL55" s="1" t="s">
+      <c r="AM55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM55" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP55" s="1">
         <v>1</v>
@@ -16144,7 +15671,7 @@
         <v>30</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU55" s="1">
         <v>0</v>
@@ -16159,7 +15686,7 @@
         <v>12</v>
       </c>
       <c r="AY55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ55" s="1">
         <v>0</v>
@@ -16238,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="BX55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY55" s="1" t="s">
         <v>12</v>
@@ -16250,7 +15777,7 @@
         <v>12</v>
       </c>
       <c r="CB55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC55" s="1">
         <v>0</v>
@@ -16269,10 +15796,10 @@
         <v>0</v>
       </c>
       <c r="CH55" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ55" s="8">
         <v>0</v>
@@ -16280,14 +15807,8 @@
       <c r="CK55" s="8">
         <v>0</v>
       </c>
-      <c r="CL55" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="CM55" s="1" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1001</v>
       </c>
@@ -16393,19 +15914,19 @@
       </c>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL56" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM56" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP56" s="1">
         <v>4.5</v>
@@ -16420,7 +15941,7 @@
         <v>245</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU56" s="1">
         <v>0</v>
@@ -16432,7 +15953,7 @@
         <v>12</v>
       </c>
       <c r="AX56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY56" s="1" t="s">
         <v>12</v>
@@ -16514,10 +16035,10 @@
         <v>50</v>
       </c>
       <c r="BX56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ56" s="1" t="s">
         <v>12</v>
@@ -16526,7 +16047,7 @@
         <v>12</v>
       </c>
       <c r="CB56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC56" s="1">
         <v>22</v>
@@ -16548,7 +16069,7 @@
         <v>34.6</v>
       </c>
       <c r="CI56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ56" s="8">
         <v>0</v>
@@ -16556,14 +16077,8 @@
       <c r="CK56" s="8">
         <v>0</v>
       </c>
-      <c r="CL56" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="CM56" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1001</v>
       </c>
@@ -16667,19 +16182,19 @@
       </c>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP57" s="1">
         <v>4.5</v>
@@ -16694,7 +16209,7 @@
         <v>245</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU57" s="1">
         <v>0</v>
@@ -16706,7 +16221,7 @@
         <v>12</v>
       </c>
       <c r="AX57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY57" s="1" t="s">
         <v>12</v>
@@ -16788,10 +16303,10 @@
         <v>60</v>
       </c>
       <c r="BX57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ57" s="1" t="s">
         <v>12</v>
@@ -16800,7 +16315,7 @@
         <v>12</v>
       </c>
       <c r="CB57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC57" s="1">
         <v>11</v>
@@ -16822,7 +16337,7 @@
         <v>60.7</v>
       </c>
       <c r="CI57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ57" s="8">
         <v>0</v>
@@ -16830,14 +16345,8 @@
       <c r="CK57" s="8">
         <v>0</v>
       </c>
-      <c r="CL57" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="CM57" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1001</v>
       </c>
@@ -16941,19 +16450,19 @@
       </c>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL58" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL58" s="1" t="s">
+      <c r="AM58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM58" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP58" s="1">
         <v>2</v>
@@ -16968,7 +16477,7 @@
         <v>60</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU58" s="1">
         <v>0</v>
@@ -16983,7 +16492,7 @@
         <v>12</v>
       </c>
       <c r="AY58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ58" s="1">
         <v>0</v>
@@ -17062,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="BX58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY58" s="1" t="s">
         <v>12</v>
@@ -17074,7 +16583,7 @@
         <v>12</v>
       </c>
       <c r="CB58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC58" s="1">
         <v>0</v>
@@ -17096,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="CI58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ58" s="8">
         <v>0</v>
@@ -17104,14 +16613,8 @@
       <c r="CK58" s="8">
         <v>0</v>
       </c>
-      <c r="CL58" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM58" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1001</v>
       </c>
@@ -17219,19 +16722,19 @@
       </c>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL59" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL59" s="1" t="s">
+      <c r="AM59" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM59" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP59" s="1">
         <v>2</v>
@@ -17246,7 +16749,7 @@
         <v>64</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU59" s="9">
         <v>1408</v>
@@ -17261,7 +16764,7 @@
         <v>12</v>
       </c>
       <c r="AY59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ59" s="1">
         <v>0</v>
@@ -17340,7 +16843,7 @@
         <v>50</v>
       </c>
       <c r="BX59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY59" s="1" t="s">
         <v>12</v>
@@ -17352,7 +16855,7 @@
         <v>12</v>
       </c>
       <c r="CB59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC59" s="1">
         <v>2</v>
@@ -17374,7 +16877,7 @@
         <v>13.5</v>
       </c>
       <c r="CI59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ59" s="8">
         <v>0</v>
@@ -17382,14 +16885,8 @@
       <c r="CK59" s="8">
         <v>0</v>
       </c>
-      <c r="CL59" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="CM59" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1001</v>
       </c>
@@ -17497,19 +16994,19 @@
       </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL60" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL60" s="1" t="s">
+      <c r="AM60" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM60" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AO60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP60" s="1">
         <v>2</v>
@@ -17524,7 +17021,7 @@
         <v>60</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AU60" s="9">
         <v>1800</v>
@@ -17539,7 +17036,7 @@
         <v>12</v>
       </c>
       <c r="AY60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AZ60" s="1">
         <v>0</v>
@@ -17618,7 +17115,7 @@
         <v>60</v>
       </c>
       <c r="BX60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY60" s="1" t="s">
         <v>12</v>
@@ -17630,7 +17127,7 @@
         <v>12</v>
       </c>
       <c r="CB60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC60" s="1">
         <v>0</v>
@@ -17652,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="CI60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ60" s="8">
         <v>0</v>
@@ -17660,14 +17157,8 @@
       <c r="CK60" s="8">
         <v>0</v>
       </c>
-      <c r="CL60" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM60" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1001</v>
       </c>
@@ -17773,19 +17264,19 @@
       </c>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL61" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL61" s="1" t="s">
+      <c r="AM61" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM61" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP61" s="1">
         <v>3</v>
@@ -17800,19 +17291,19 @@
         <v>155</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU61" s="1">
         <v>0</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY61" s="1" t="s">
         <v>12</v>
@@ -17894,10 +17385,10 @@
         <v>0</v>
       </c>
       <c r="BX61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ61" s="1" t="s">
         <v>12</v>
@@ -17906,7 +17397,7 @@
         <v>12</v>
       </c>
       <c r="CB61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC61" s="1">
         <v>2</v>
@@ -17925,10 +17416,10 @@
         <v>8</v>
       </c>
       <c r="CH61" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI61" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ61" s="8">
         <v>0</v>
@@ -17936,14 +17427,8 @@
       <c r="CK61" s="8">
         <v>0</v>
       </c>
-      <c r="CL61" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM61" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1001</v>
       </c>
@@ -18049,19 +17534,19 @@
       </c>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL62" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL62" s="1" t="s">
+      <c r="AM62" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM62" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP62" s="1">
         <v>3</v>
@@ -18076,19 +17561,19 @@
         <v>138</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU62" s="1">
         <v>0</v>
       </c>
       <c r="AV62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY62" s="1" t="s">
         <v>12</v>
@@ -18170,10 +17655,10 @@
         <v>0</v>
       </c>
       <c r="BX62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ62" s="1" t="s">
         <v>12</v>
@@ -18182,7 +17667,7 @@
         <v>12</v>
       </c>
       <c r="CB62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC62" s="1">
         <v>0</v>
@@ -18201,10 +17686,10 @@
         <v>0</v>
       </c>
       <c r="CH62" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI62" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ62" s="8">
         <v>0</v>
@@ -18212,14 +17697,8 @@
       <c r="CK62" s="8">
         <v>0</v>
       </c>
-      <c r="CL62" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM62" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1001</v>
       </c>
@@ -18325,19 +17804,19 @@
       </c>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL63" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL63" s="1" t="s">
+      <c r="AM63" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM63" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP63" s="1">
         <v>3</v>
@@ -18352,19 +17831,19 @@
         <v>152</v>
       </c>
       <c r="AT63" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
       </c>
       <c r="AV63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY63" s="1" t="s">
         <v>12</v>
@@ -18446,10 +17925,10 @@
         <v>0</v>
       </c>
       <c r="BX63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ63" s="1" t="s">
         <v>12</v>
@@ -18458,7 +17937,7 @@
         <v>12</v>
       </c>
       <c r="CB63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC63" s="1">
         <v>19</v>
@@ -18477,10 +17956,10 @@
         <v>23</v>
       </c>
       <c r="CH63" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI63" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ63" s="8">
         <v>0</v>
@@ -18488,14 +17967,8 @@
       <c r="CK63" s="8">
         <v>0</v>
       </c>
-      <c r="CL63" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM63" s="1" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1001</v>
       </c>
@@ -18599,19 +18072,19 @@
       </c>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL64" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL64" s="1" t="s">
+      <c r="AM64" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM64" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP64" s="1">
         <v>3</v>
@@ -18626,19 +18099,19 @@
         <v>152</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU64" s="1">
         <v>0</v>
       </c>
       <c r="AV64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY64" s="1" t="s">
         <v>12</v>
@@ -18720,10 +18193,10 @@
         <v>0</v>
       </c>
       <c r="BX64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ64" s="1" t="s">
         <v>12</v>
@@ -18732,7 +18205,7 @@
         <v>12</v>
       </c>
       <c r="CB64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC64" s="1">
         <v>12</v>
@@ -18751,10 +18224,10 @@
         <v>16</v>
       </c>
       <c r="CH64" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ64" s="8">
         <v>0</v>
@@ -18762,14 +18235,8 @@
       <c r="CK64" s="8">
         <v>0</v>
       </c>
-      <c r="CL64" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="CM64" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1001</v>
       </c>
@@ -18875,19 +18342,19 @@
       </c>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL65" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL65" s="1" t="s">
+      <c r="AM65" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM65" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP65" s="1">
         <v>3</v>
@@ -18902,19 +18369,19 @@
         <v>152</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
       </c>
       <c r="AV65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY65" s="1" t="s">
         <v>12</v>
@@ -18996,10 +18463,10 @@
         <v>0</v>
       </c>
       <c r="BX65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ65" s="1" t="s">
         <v>12</v>
@@ -19008,7 +18475,7 @@
         <v>12</v>
       </c>
       <c r="CB65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC65" s="1">
         <v>28</v>
@@ -19027,10 +18494,10 @@
         <v>25</v>
       </c>
       <c r="CH65" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ65" s="8">
         <v>0</v>
@@ -19038,14 +18505,8 @@
       <c r="CK65" s="8">
         <v>0</v>
       </c>
-      <c r="CL65" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="CM65" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1001</v>
       </c>
@@ -19149,19 +18610,19 @@
       </c>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL66" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL66" s="1" t="s">
+      <c r="AM66" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM66" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP66" s="1">
         <v>3</v>
@@ -19176,19 +18637,19 @@
         <v>152</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
       </c>
       <c r="AV66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY66" s="1" t="s">
         <v>12</v>
@@ -19270,10 +18731,10 @@
         <v>0</v>
       </c>
       <c r="BX66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ66" s="1" t="s">
         <v>12</v>
@@ -19282,7 +18743,7 @@
         <v>12</v>
       </c>
       <c r="CB66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC66" s="1">
         <v>13</v>
@@ -19301,10 +18762,10 @@
         <v>5</v>
       </c>
       <c r="CH66" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ66" s="8">
         <v>0</v>
@@ -19312,14 +18773,8 @@
       <c r="CK66" s="8">
         <v>0</v>
       </c>
-      <c r="CL66" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="CM66" s="1" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1001</v>
       </c>
@@ -19423,19 +18878,19 @@
       </c>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL67" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AL67" s="1" t="s">
+      <c r="AM67" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AM67" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="AN67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AP67" s="1">
         <v>3</v>
@@ -19450,19 +18905,19 @@
         <v>152</v>
       </c>
       <c r="AT67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
       </c>
       <c r="AV67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AW67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY67" s="1" t="s">
         <v>12</v>
@@ -19544,10 +18999,10 @@
         <v>0</v>
       </c>
       <c r="BX67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BY67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BZ67" s="1" t="s">
         <v>12</v>
@@ -19556,7 +19011,7 @@
         <v>12</v>
       </c>
       <c r="CB67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CC67" s="1">
         <v>21</v>
@@ -19575,22 +19030,16 @@
         <v>4</v>
       </c>
       <c r="CH67" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="CI67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CJ67" s="8">
         <v>0</v>
       </c>
       <c r="CK67" s="8">
         <v>0</v>
-      </c>
-      <c r="CL67" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="CM67" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
